--- a/twitter/twitter-naming-convention.xlsx
+++ b/twitter/twitter-naming-convention.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agoldenberg/Dropbox (Harvard University)/lab/lab-github/naming-conventions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuang\OneDrive - Harvard Business School\Documents\GitHub\naming-conventions\twitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE6D70EA-D8AF-0843-BC4E-59B67B3C6856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{CE6D70EA-D8AF-0843-BC4E-59B67B3C6856}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B282885-1A25-489D-9872-22131CBCD49A}"/>
   <bookViews>
-    <workbookView xWindow="10020" yWindow="4240" windowWidth="30720" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10020" yWindow="4245" windowWidth="30720" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,21 +150,6 @@
     <t>[sentence1,sentence]</t>
   </si>
   <si>
-    <t>vader_pos_by_sentence</t>
-  </si>
-  <si>
-    <t>vader_neg_by_sentence</t>
-  </si>
-  <si>
-    <t>vader_comp_by_sentence</t>
-  </si>
-  <si>
-    <t>vader_pos_average</t>
-  </si>
-  <si>
-    <t>vader_pos_by_Sentence/ amoutn of sentences</t>
-  </si>
-  <si>
     <t>vader_neg_average</t>
   </si>
   <si>
@@ -490,6 +475,21 @@
   </si>
   <si>
     <t>quoted_statut_url</t>
+  </si>
+  <si>
+    <t>vader_pos</t>
+  </si>
+  <si>
+    <t>vader_neg</t>
+  </si>
+  <si>
+    <t>vader_comp</t>
+  </si>
+  <si>
+    <t>vader_neu</t>
+  </si>
+  <si>
+    <t>vader_category</t>
   </si>
 </sst>
 </file>
@@ -860,51 +860,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" customWidth="1"/>
-    <col min="3" max="3" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="28.875" customWidth="1"/>
+    <col min="3" max="3" width="39.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.1640625" customWidth="1"/>
-    <col min="7" max="7" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" customWidth="1"/>
-    <col min="10" max="10" width="38.83203125" customWidth="1"/>
-    <col min="11" max="11" width="38.6640625" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="33.125" customWidth="1"/>
+    <col min="7" max="7" width="41.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="9" max="9" width="16.125" customWidth="1"/>
+    <col min="10" max="10" width="38.875" customWidth="1"/>
+    <col min="11" max="11" width="38.625" customWidth="1"/>
+    <col min="12" max="12" width="18.375" customWidth="1"/>
     <col min="13" max="13" width="35" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="28" width="25.1640625" customWidth="1"/>
-    <col min="29" max="29" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="29.83203125" customWidth="1"/>
-    <col min="32" max="32" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="28" width="25.125" customWidth="1"/>
+    <col min="29" max="29" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="29.875" customWidth="1"/>
+    <col min="32" max="32" width="39.875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="33" customWidth="1"/>
     <col min="34" max="34" width="20" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -915,7 +915,7 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -924,7 +924,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
         <v>1</v>
@@ -960,76 +960,76 @@
         <v>9</v>
       </c>
       <c r="U2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
         <v>49</v>
       </c>
-      <c r="C3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="H3" t="s">
         <v>50</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>51</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>52</v>
       </c>
-      <c r="G3" t="s">
+      <c r="K3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H3" t="s">
+      <c r="N3" t="s">
         <v>55</v>
       </c>
-      <c r="I3" t="s">
+      <c r="O3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="P3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="Q3" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="R3" t="s">
         <v>59</v>
       </c>
-      <c r="N3" t="s">
+      <c r="T3" t="s">
         <v>60</v>
       </c>
-      <c r="O3" t="s">
+      <c r="U3" t="s">
         <v>61</v>
       </c>
-      <c r="P3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>63</v>
-      </c>
-      <c r="R3" t="s">
-        <v>64</v>
-      </c>
-      <c r="T3" t="s">
-        <v>65</v>
-      </c>
-      <c r="U3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1055,10 +1055,10 @@
         <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K6" t="s">
         <v>22</v>
@@ -1073,48 +1073,48 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM7" t="s">
         <v>70</v>
       </c>
-      <c r="G7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H7" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" t="s">
-        <v>103</v>
-      </c>
-      <c r="J7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L7" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1122,23 +1122,23 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
@@ -1153,116 +1153,116 @@
         <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I13" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="J13" t="s">
+      <c r="O13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K13" t="s">
-        <v>97</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="P13" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="Q13" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" t="s">
+        <v>85</v>
+      </c>
+      <c r="N14" t="s">
+        <v>86</v>
+      </c>
+      <c r="O14" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>143</v>
+      </c>
+      <c r="R14" t="s">
+        <v>144</v>
+      </c>
+      <c r="S14" t="s">
+        <v>145</v>
+      </c>
+      <c r="T14" t="s">
         <v>146</v>
       </c>
-      <c r="R13" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" t="s">
-        <v>86</v>
-      </c>
-      <c r="J14" t="s">
-        <v>87</v>
-      </c>
-      <c r="K14" t="s">
-        <v>88</v>
-      </c>
-      <c r="L14" t="s">
-        <v>89</v>
-      </c>
-      <c r="M14" t="s">
-        <v>90</v>
-      </c>
-      <c r="N14" t="s">
-        <v>91</v>
-      </c>
-      <c r="O14" t="s">
-        <v>93</v>
-      </c>
-      <c r="P14" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>148</v>
-      </c>
-      <c r="R14" t="s">
-        <v>149</v>
-      </c>
-      <c r="S14" t="s">
-        <v>150</v>
-      </c>
-      <c r="T14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
         <v>31</v>
@@ -1277,149 +1277,149 @@
         <v>34</v>
       </c>
       <c r="H16" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16" t="s">
+        <v>115</v>
+      </c>
+      <c r="J16" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" t="s">
+        <v>122</v>
+      </c>
+      <c r="I17" t="s">
+        <v>124</v>
+      </c>
+      <c r="J17" t="s">
+        <v>125</v>
+      </c>
+      <c r="K17" t="s">
+        <v>126</v>
+      </c>
+      <c r="L17" t="s">
+        <v>127</v>
+      </c>
+      <c r="M17" t="s">
         <v>128</v>
       </c>
-      <c r="I16" t="s">
-        <v>120</v>
-      </c>
-      <c r="J16" t="s">
-        <v>114</v>
-      </c>
-      <c r="K16" t="s">
-        <v>115</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" t="s">
-        <v>111</v>
-      </c>
-      <c r="H17" t="s">
-        <v>127</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="N17" t="s">
         <v>129</v>
       </c>
-      <c r="J17" t="s">
+      <c r="O17" t="s">
+        <v>105</v>
+      </c>
+      <c r="P17" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q17" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="K17" t="s">
-        <v>131</v>
-      </c>
-      <c r="L17" t="s">
-        <v>132</v>
-      </c>
-      <c r="M17" t="s">
-        <v>133</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="R17" t="s">
         <v>134</v>
       </c>
-      <c r="O17" t="s">
-        <v>110</v>
-      </c>
-      <c r="P17" t="s">
+      <c r="S17" t="s">
         <v>136</v>
       </c>
-      <c r="Q17" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="R17" t="s">
-        <v>139</v>
-      </c>
-      <c r="S17" t="s">
-        <v>141</v>
-      </c>
       <c r="T17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
       <c r="B21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" t="s">
+        <v>154</v>
+      </c>
+      <c r="H21" t="s">
         <v>41</v>
       </c>
-      <c r="C21" t="s">
+      <c r="I21" t="s">
         <v>42</v>
       </c>
-      <c r="E21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>40</v>
       </c>
-      <c r="F22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="V24" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="X24" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
